--- a/Data/PageObjectsData_web.xlsx
+++ b/Data/PageObjectsData_web.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7650" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7650" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Page_HomeGuide" sheetId="14" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="250">
   <si>
     <t>VALUE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,14 +207,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//*[@id="miniCartBox"]/a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导航栏中我的购物车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Brand_View</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1008,6 +1000,26 @@
   </si>
   <si>
     <t>品牌收藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="miniCartBox"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导航栏--购物车图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导航栏--购物车--去购物车结算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去购物车结算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoToCart</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1517,422 +1529,422 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>211</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>214</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>217</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>220</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -1944,10 +1956,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1955,7 +1967,7 @@
     <col min="1" max="1" width="22.75" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="38.375" customWidth="1"/>
-    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="4" max="4" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
@@ -1974,54 +1986,54 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
@@ -2035,7 +2047,7 @@
         <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
@@ -2052,58 +2064,72 @@
     </row>
     <row r="8" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>245</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>47</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>57</v>
+    </row>
+    <row r="12" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -2237,7 +2263,7 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -2293,72 +2319,72 @@
     </row>
     <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -2400,44 +2426,44 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2451,7 +2477,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2478,100 +2504,100 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2584,8 +2610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2612,105 +2638,106 @@
     </row>
     <row r="2" spans="1:4" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2746,58 +2773,58 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2810,7 +2837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -2838,30 +2865,30 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/Data/PageObjectsData_web.xlsx
+++ b/Data/PageObjectsData_web.xlsx
@@ -2611,7 +2611,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
